--- a/manifests - Copy/Negative_Manifest.xlsx
+++ b/manifests - Copy/Negative_Manifest.xlsx
@@ -390,7 +390,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="66" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:D99"/>
@@ -537,6 +537,116 @@
         </is>
       </c>
     </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>n6</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>n6_e280_4321_2_7_UnitedStoneInternational_Cleveland_OH_.jpeg</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>no_meltpatch</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>n7</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>n7_e274_4321_1_2_UnitedStoneInternational_Cleveland_OH_.jpeg</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>no_meltpatch</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>n8</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>n8_e276_4321_1_4_UnitedStoneInternational_Cleveland_OH_.jpeg</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>no_meltpatch</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>n9</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>n9_e277_4321_1_5_UnitedStoneInternational_Cleveland_OH_.jpeg</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>no_meltpatch</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>n10</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>n10_e279_4321_1_7_UnitedStoneInternational_Cleveland_OH_.jpeg</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>no_meltpatch</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
